--- a/工作计划/2022/202208.xlsx
+++ b/工作计划/2022/202208.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12320"/>
+    <workbookView windowWidth="28800" windowHeight="12320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,7 +20,7 @@
     <t>目标</t>
   </si>
   <si>
-    <t xml:space="preserve">1 优化UI Diff Report
+    <t xml:space="preserve">1 
 2 实时生成UI diff report， 当接收到一个case的allure测试报告，就发送Kafka信息，用来generate ui diff report。
 3 在 UI Diff Case管理页面，新增"generate ui diff report" 按钮 点击时，发送一条Kafka信息，用来重新生成report。（目的：当图库更新时，用来人工更新report）
 4 在UI Diff Case 页面，新增模块：用来展示UI比较进度。[用websocket反向通知用户] </t>
@@ -87,9 +88,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -133,7 +134,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,32 +165,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,82 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,19 +291,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,13 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,127 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,6 +524,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -538,30 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -573,6 +565,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,7 +606,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,145 +615,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,8 +1118,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1262,4 +1263,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>